--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA7C520-893E-4213-9186-45B29E17769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD32FF6-0847-48C7-97CD-106ADE658098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{D6B63B1C-56CB-47D7-A95B-52EBF3CD338B}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{75FD10D0-BE0A-47B3-B828-84F82C77B1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63559D2-536E-4BAD-B537-0B128A5F24CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79F7C10-2478-4BC7-B5AE-368947CAE291}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD32FF6-0847-48C7-97CD-106ADE658098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43304336-EA3C-4379-B2E9-0EE58B01F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{75FD10D0-BE0A-47B3-B828-84F82C77B1C1}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5BD5C390-8623-4593-8660-6FEA08AC1978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79F7C10-2478-4BC7-B5AE-368947CAE291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315EB9E1-D7E5-4B4C-AE89-0D7F4741E7FB}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43304336-EA3C-4379-B2E9-0EE58B01F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4496A9-BBB9-441D-BB38-7E43CCAC09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5BD5C390-8623-4593-8660-6FEA08AC1978}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{0C6E233B-F4CF-4352-8EA9-1F6D993BD5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315EB9E1-D7E5-4B4C-AE89-0D7F4741E7FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A33B4-3E50-4F62-849B-1606587C48CA}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4496A9-BBB9-441D-BB38-7E43CCAC09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2558A058-F8F1-4B5B-8F49-24B260D053DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{0C6E233B-F4CF-4352-8EA9-1F6D993BD5F1}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{BA172F6C-3EA4-4CC5-89CD-894B4C30E126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A33B4-3E50-4F62-849B-1606587C48CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F59A4F9-EE20-49CA-98AC-1AE6064BCA5B}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24126,7 +24126,7 @@
         <v>5</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -24477,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>1</v>
